--- a/Config/Datas/__tables__.xlsx
+++ b/Config/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7C1EB2-737A-47A9-80B8-D8A8EBC9A8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B132B17-0D08-4DA5-9C67-93CC5CBEA5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -139,6 +139,30 @@
   </si>
   <si>
     <t>CardDatas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeDataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipeDatas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardEventDataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardEventData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardEventDatas</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +535,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,14 +675,32 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
